--- a/Assets/ERang/Excels/ConditionData.xlsx
+++ b/Assets/ERang/Excels/ConditionData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -586,15 +586,20 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="30.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999">
+    <row r="1" spans="1:8" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -620,7 +625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999">
+    <row r="2" spans="1:8" ht="16.5">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -646,7 +651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.399999999999999">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -672,7 +677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.399999999999999">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -694,7 +699,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="17.399999999999999">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -720,7 +725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -746,7 +751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.399999999999999">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -768,7 +773,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="17.399999999999999">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -794,7 +799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.399999999999999">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -820,7 +825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.399999999999999">
+    <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -846,7 +851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.399999999999999">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="3">
         <v>1010</v>
       </c>
@@ -872,7 +877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.399999999999999">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="3">
         <v>1011</v>
       </c>
@@ -898,7 +903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.399999999999999">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="3">
         <v>1012</v>
       </c>

--- a/Assets/ERang/Excels/ConditionData.xlsx
+++ b/Assets/ERang/Excels/ConditionData.xlsx
@@ -586,12 +586,12 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" style="1" bestFit="1" customWidth="1"/>
